--- a/ESPN sports website/IPL/Lucknow Super Giants/Avesh Khan.xlsx
+++ b/ESPN sports website/IPL/Lucknow Super Giants/Avesh Khan.xlsx
@@ -480,31 +480,31 @@
         <v>Avesh Khan</v>
       </c>
       <c r="C3" t="str">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>300.00</v>
+        <v>50.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Gujarat Titans</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>May 10, 2022</v>
+        <v>May 15, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Titans won by 62 runs</v>
+        <v>Royals won by 24 runs</v>
       </c>
     </row>
     <row r="4">
@@ -550,31 +550,31 @@
         <v>Avesh Khan</v>
       </c>
       <c r="C5" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D5" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="str">
-        <v>50.00</v>
+        <v>300.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J5" t="str">
-        <v>May 15, 2022</v>
+        <v>May 10, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Royals won by 24 runs</v>
+        <v>Titans won by 62 runs</v>
       </c>
     </row>
   </sheetData>
